--- a/Excel/ChildStatusConfig.xlsx
+++ b/Excel/ChildStatusConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7FEDFE-0077-4CD2-BC19-9C7374424821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6661A088-190A-4437-9054-E8A9E51A234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="22350" windowHeight="11505" tabRatio="376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Weak</t>
   </si>
   <si>
     <t>ChildStatus1</t>
@@ -55,10 +52,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>变动数值=-60%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ChildStatus2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -69,19 +62,13 @@
   <si>
     <t>Status2KV2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CauseDamagePctModify</t>
-  </si>
-  <si>
-    <t>MoveSpeedPctModify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +94,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,16 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -159,6 +133,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -178,7 +220,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -457,114 +499,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="15.25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
